--- a/data/trans_bre/P16A98-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A98-Estudios-trans_bre.xlsx
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,09</t>
+          <t>-0,8; 1,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 17,34</t>
+          <t>5,3; 17,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 7,04</t>
+          <t>-1,3; 6,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,18; 286,9</t>
+          <t>46,97; 305,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-76,13; 1008,1</t>
+          <t>-71,49; 754,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,57</t>
+          <t>0,0; 0,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,63</t>
+          <t>-0,02; 2,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,48</t>
+          <t>-0,16; 1,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 331,85</t>
+          <t>-14,02; 369,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 605,39</t>
+          <t>-34,83; 571,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,54</t>
+          <t>-1,15; 2,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,94</t>
+          <t>-1,51; 0,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,57</t>
+          <t>-0,11; 0,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,19</t>
+          <t>2,0; 5,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 1,31</t>
+          <t>-0,24; 1,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1342,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>72,33; 304,24</t>
+          <t>67,94; 284,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 267,12</t>
+          <t>-30,78; 254,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P16A98-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A98-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,89</t>
+          <t>-0,74; 2,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,3; 17,34</t>
+          <t>5,21; 17,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 6,42</t>
+          <t>-1,42; 7,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,97; 305,62</t>
+          <t>47,0; 296,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-71,49; 754,19</t>
+          <t>-76,26; 949,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,78</t>
+          <t>0,0; 0,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 2,72</t>
+          <t>-0,16; 2,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,52</t>
+          <t>-0,14; 1,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 369,49</t>
+          <t>-21,42; 348,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,83; 571,5</t>
+          <t>-31,19; 675,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,54</t>
+          <t>-1,07; 2,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,95</t>
+          <t>-1,32; 0,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,58</t>
+          <t>-0,11; 0,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,11</t>
+          <t>1,95; 5,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,29</t>
+          <t>-0,13; 1,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1342,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,94; 284,12</t>
+          <t>68,93; 296,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,78; 254,06</t>
+          <t>-20,42; 265,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
